--- a/data/hotels_by_city/Dallas/Dallas_shard_373.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_373.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mark A</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Stayed at HIE for business.  Two nights in a row no soap or shampoo left in room.  Roach dead on floor in bathroom.  Same roach was there next day it wasn’t removed by cleaning staff.  Fitness center ventilation was not working and it was very hot.  Safety switch disabled on treadmill which is a safety hazard.  Equipment in fitness room is very low end.  Breakfast was supposed to be out by 6 AM and by 630 when we had to leave it was still being put out so we only got a bagel.  Won’t stay here again.More</t>
   </si>
   <si>
+    <t>DAVID Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r568946253-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>we were visiting relatives in Tolar and stayed in Granbury, have used express before and went back, rooms were clean and smelled fresh, the breakfast was very tasty eggs were great and they always fix good bacon.  Always a good place to stay.More</t>
   </si>
   <si>
+    <t>MDNied</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r578173096-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Friendly and helpful staff at the front desk. Ample size breakfast area. Awesome cinnamon rolls. Clean and spacious room. (The bed was a little noisy. Cold a/c. Clean bath. Close to downtown area. Ample parking. More</t>
   </si>
   <si>
+    <t>Tupelo010835</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r575048818-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Wife and I stayed here while in town for a Saturday evening show and a Sunday afternoon show at Granbury Live. Check in was a breeze, the room was clean, comfortable and quiet. HIE breakfasts have never been my favorites. OK but no more than that. Nice, helpful staff throughout.Recommended. Will return when in the area.More</t>
   </si>
   <si>
+    <t>judyeclark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r570230600-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>My husband and I stayed here while we were on a weekend get away.  The staff here is friendly and goes the extra mile to make sure each guest is well taken care of.  Our room was large, clean and extremely comfortable.  The shower was amazing.  The price was extremely economical as well.  We’ll definitely be back!More</t>
   </si>
   <si>
+    <t>Sandra P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r547742898-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>We arrived in Granbury late and needed a hotel. Front desk staff very friendly. Hotel lobby was very nice.  Room very clean. We left too early to enjoy the free breakfast. But we would definitely stay again. More</t>
   </si>
   <si>
+    <t>Charlotte H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r521221489-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Very nice staff, all that we encountered was very helpful. Nice room, bed a little hard but I slept just fine. Breakfast was typical hotel style. Area is nice and safe. Hotel was quiet at night. Definitely would stay again. More</t>
   </si>
   <si>
+    <t>Shannon N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r507840884-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>We booked a weekend here for a family get together.  Once we all had checked in we noticed our refrigerator was not working properly.  We got with Nichole and Destiny at the front desk concerning the problem.  They immediately responded and move us to another room.  They were very sorry for our move and went out of their way to make sure we were well taken care of.  Hotel was an average Holiday Day Inn and was what we expected.  The morning buffet was well stocked and the morning crew was always nearby to refill any items running low.  The pool area was clean and had plenty of towels.  Overall, our stay was very good.  We noticed the staff working just as hard for others as they did for us.  1st time in Granbury and would stay here again.More</t>
   </si>
   <si>
+    <t>awunder2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r503957228-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Super friendly staff and Very helpful. Clean and well maintained. Needs some improvement in the accessible rooms. Beds are too high. Has wifi,  hot breakfast, pool, and hot tub. Good location.  Nice roomsMore</t>
   </si>
   <si>
+    <t>REVoigt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r499444981-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>I stayed here as my regular Granbury hotel was sold out. It is very typical of a Holiday Inn Express. They have a pretty decent free breakfast. The rooms are comfortable and include all the basic amenities. My room was actually very large (two queen beds) and really looked like it should have had a sofa or something in the room to take up some of the extra space. This HIE has an indoor pool which is nice. All in all a good hotel at a fair price. More</t>
   </si>
   <si>
+    <t>Danyell T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r478991178-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>Absolutely loved my experience. The Staff is wonderful, very attentive, friendly, and helpful. The rooms are CLEAN and decorated very nicely. The hotel pool and hot tub were very clean and in working order at all times. The buffet breakfast was amazing! The outside of the hotel is very well kept as well as the lobby and other common areas. The cleaning personnel are were very helpful and on top of the rooms cleanliness. All in all my experience was great and I def recommend if you are staying in granary stay here! Thank you to all who made my time there enjoyable and pleasant.More</t>
   </si>
   <si>
+    <t>ChipOlga</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r478624419-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>We recently went to Granbury to celebrate our anniversary.  I tried to make a reservation at several recommended Bed &amp; Breakfasts, but they were all full.  So, instead I made a reservation at the Holiday Inn Express in Granbury through Priceline. We got a great deal. We were not disappointed in the least.  Holiday Inn was clean, roomy and the staff was helpful and friendly.  The employee managing the breakfast the morning of April 23rd was exceptional.  She was observant and offered help wherever she saw a need.  It was very refreshing!!  We'd stay again.More</t>
   </si>
   <si>
+    <t>KathDep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r468862859-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>Booked this place the day of our need for it and got a very good rate.  We've stayed at the Best Western Inn and Suites next door and these two hotels are right next to each other, same parking lot.  I think I actually like the Holiday Inn a little better, BW was more dated.  Not sure why BW is so much higher in the Trip Advisor ratings than the HI because they are very comparable, so book whichever one is cheaper.  Our room was clean and quiet (even though the hotel was full) and they had free WiFi, no need for a password.  Staff was very friendly.More</t>
   </si>
   <si>
+    <t>Kendall A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r465163147-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>I liked it here.  It is well located.  Everything was very clean and they offer breakfast in the morning.  Holiday Inn Express is very reliable in these ways.  Lots of parking.  Friendly staff.  I would stay here again.More</t>
   </si>
   <si>
+    <t>CLARENCE B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r462994303-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -546,6 +591,9 @@
     <t>Very pleasant experience. Staff was courteous, professional and a wealth of local knowledge.  Room was clean and well arranged.  Really appreciated the walk-in shower with a door and not the usual tub/curtain combination.More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r458613393-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>The wife and I stayed in Granbury for the weekend experience of the Opera House and Revolver Brewery. This hotel was eveerything we needed - grat room, great service, a really nice breakfast available. The desk personnel couldn't have been nicer, and the lady that served the breakfast was friendly and helpful both mornings we were there, Loved it.More</t>
   </si>
   <si>
+    <t>Isabel S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r457950211-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>we found it via booking.com and liked it because it was saying 490ft. room and had nice photos with a sifa next to the 2 queen beds. we didnt book it instead we just walked in. we got the same rate as on the internet but the room eas completely different. when i showed the girl at the reception their advertised photos on booking.com she told me thats for the suite.thankfully we got it refunded but wrong description snd photos are misleading and not acceptable in my opinion.More</t>
   </si>
   <si>
+    <t>Dwayne G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r438304617-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -621,6 +675,9 @@
     <t>I have stayed here several times. It's more than enough. Nothing fancy but everything you need, friendly, clean and comfortable. Breakfast is good, pancakes, fruit, fresh coffee and juice. Kind of like a home away from home. More</t>
   </si>
   <si>
+    <t>TravelingMax77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r429559043-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>Reserved a Queen Suite and got Queen Regular which was very small for a 4 person family. Also, past time for an update; walls are dingy and carpets look dirty. Best stay at HIE Glen Rose. My navigation in my 2016 Escalade didn't know where it was. More</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r408280529-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -678,6 +738,9 @@
     <t>We are not frequent Holiday Inn guests.  The brand we usually use does not have a property in Granbury.  We had a positive experience!The staff is friendly.  The hotels is well maintained and clean.  The attendant at the breakfast area was very welcoming.The only negative is that the room door did not close to locked on its own. If you stay make sure to pull your door all the way closed.Overall very positive experience!More</t>
   </si>
   <si>
+    <t>jon b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r397923927-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -705,6 +768,9 @@
     <t>Our RV broke down on a road trip. A couple of other hotels didn't even bother to answer the phone when we called. The lady at the desk when I called here was ultra helpful and took care of us. We had a great stay and Granbury was a nice little surprise for us, truly a hidden gem of a town. The hotel was clean, the breakfast was good and the staff was always extremely friendly and helpful. The location is convenient if you have a car, I didn't see too much within walking distance (unless you want to cross the highway on foot).  I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>swfcpilot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r396797106-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -729,6 +795,9 @@
     <t>I don't know about other parts of the hotel but in room 215 I had the fastest wi-fi I've ever used in any hotel.  I was able to make a video call to the family back home and even streamed Netflix in HD as a test without a single pause or skip.  After being outside in 100+ heat all day at the race track in Cresson, the super cold air conditioning was a blessing as was the indoor pool to cool off in and the hot tub to relax sore muscles.  Breakfast was fresh and tasty with all the regular items.  Biscuits were not dry at all like some places I've stayed and all the hot foods were hot.  Satellite TV with full interactive guide was a plus. We'll be back again!More</t>
   </si>
   <si>
+    <t>B52Gunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r389861229-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -753,6 +822,9 @@
     <t>Upon on arrival, the blonde lady at the front desk, no Welcome to Holiday Inn , just the name on the reservation, here is you key and access code for Wi-Fi and breakfast is from 6 to 10, no information on the hotel and services available. The hotel and rooms were very clean and nice. Front Desk personnel need some training in SERVICE.More</t>
   </si>
   <si>
+    <t>NEWLKAT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r386682691-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>This hotel is nicely decorated and clean, and the rooms nicely appointed.  The beds however were a bit firm.  I think our main issue was the lack of hot water.  I took a shower on full hot in the morning and it was just warm, my sister took a shower shortly after me and it was a cold one.  I will say the hotel was sold out maybe everyone using the showers at the same time.  The breakfast was ok, liked the cinnamon rolls  they seemed to keep it stocked well, so there was still food when we got there.More</t>
   </si>
   <si>
+    <t>Gerald N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r378026768-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -798,6 +873,9 @@
     <t>Stayed over the memorial day weekend so the hotel was full and needed to stay in their king deluxe room. The hotel staff handled reservation and introduced hotel room keys well.  Room was very nice. The room did not have an extra blanket in the closet so we used an extra mattress pad. The room had a refrigerator and microwave and a keurig.  The coffee in the lobby was cold from the morning. The breakfast is limited but tasted very good.   No bananas and orange drink instead of juice. Second morning no skim milk.  The breakfast hostess was very good and tried to ensure everyone ate before closing up and helped patrons with their dishes.  I was shocked that the maids on the second night did not refurbish the coffee k cups and teas.  I am sure that would not be hotel policy but we got back too late to have staff find us more.  More</t>
   </si>
   <si>
+    <t>krharvey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r358229791-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Cole P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r356153687-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>The worst experience I have ever had at a hotel. Rude, unfriendly staff completely unwilling to accommodate us. We had a reservation and they couldn't seem to get a room ready for us. After waiting hours I asked about canceling my reservation, it was confirmed by two employees that I would be able to cancel. 15 mins later after booking another hotel they told me to bad they were not going to cancel it. After calling IHG customer service, since I have been a member for years, the hotel manager wouldn't even work with senior customer reps to do anything  for us. Don't waste your time here.More</t>
   </si>
   <si>
+    <t>ctbruinfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r353378265-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -864,6 +948,9 @@
     <t>Rooms are spacious with desk dresser and mine had 2 beds. Very convenient having a fridge and micro wave oven. In room coffee maker was nice as well. My only complaint has to do with breakfast. The coffee was always Luke warm at best. One day I found fresh hot coffee on upper shelf. Also it would be nice if it started at 6 instead of 6:30am.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r351708949-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -891,6 +978,9 @@
     <t>Comfy rooms, indoor pool, great location, superior service, and free breakfast (love the cinnamon buns). Stayed with kids and two young grandchildren.  They were nice enough to get us on the same room and upgraded one room to a king "suite" which really helped since it had a sofa sleeper.  Only two "problems" and they were minor.....juice machine broken (stuff happens, but we don't drink coffee...maybe run out and buy some gallons of juice?) and the pillows were crummy....which is too bad because the bed was very comfortable.  All in all good place for very reasonable price.More</t>
   </si>
   <si>
+    <t>Jessica W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r349505429-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -909,6 +999,9 @@
     <t>This was a very clean hotel. The staff was very friendly. The beds were very comfortable. The pillows were not the best but, are any hotel pillows?! Breakfast was what you would expect. We just made it down to eat when it was about 5 minutes until they ended the breakfast. The lady was kind and left it out for a little extra time. She even came and asked us if we had everything we needed before she closed it down. I felt the value was great! I would stay here again!More</t>
   </si>
   <si>
+    <t>KTrouble</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r337693959-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1020,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>RobertWenger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r334073393-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1038,9 @@
     <t xml:space="preserve">Many Holiday Inn Express' offer breakfast starting at 6:30 am. Not 6:29 but 6:30. This particular Inn recognizes many guests must be on the road well before. The employees go out of their way to adjust this time frame, often opening a half hour early. if that best serves their Customer's schedule.  They recognize their visitors needs, I do not like to single out anyone in particular because all employees at this Express are Excellent. But I do want to recognize their Night Auditor Eric. Outstanding Holiday Inn Employee always with a smile. Rooms are clean- A very good value. My choice in this area. </t>
   </si>
   <si>
+    <t>scooterchuck</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r312840439-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1059,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Doxiedad5619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r295079545-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1080,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>B C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r292951503-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1098,9 @@
     <t>HORRIBLE people run this place.  I was physically unable to reach this location due to my pickup overheating in 100 degree weather.  I was not permitted to cancel my reservation or transfer it to another Holiday Inn.  The management was too eager to grab my $100 to be nice or civil.  I will not be making any more reservations there and will not recommend this location to anyone!!</t>
   </si>
   <si>
+    <t>GloriaByington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r290116179-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1017,6 +1125,9 @@
     <t>We had a great stay and so much fun in Granbury.  The room was clean and modern and the INCLUDED breakfast was delicious.  Staff was professional and so friendly.  Location is superb, close to everything.  WE definitely recommend this hotel.  That is the only place we will stay when we are in Granbury.More</t>
   </si>
   <si>
+    <t>luv2travelfromAR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r287739529-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1146,9 @@
     <t>We stayed at Holiday Inn Express Granbury over the 4th of July weekend.  It was a busy time for them, but everyone at the hotel seemed to go above and beyond to make our stay comfortable and enjoyable.  We had requested adjoining rooms after booking our stay, and they were assigned to us prior to our arrival.  The rooms were clean and nicely appointed.  Each bathroom had shampoo, conditioner, and lotion from Bath &amp; Body Works.  Breakfasts each morning were hot and fresh and had a wide array of foods available.  Each day, there was some sort of egg served (either scrambled or an omelet), breakfast meats, biscuits, gravy, assorted breads and muffins, cereals, pancakes, and various fruits.  The housekeeping staff did a great job of cleaning our rooms, and even folded my daughter's blankie and "tucked in" her stuffed animals when they made the bed.  It's little things like that that are above and beyond that can turn a good stay into a great one.The only problem we encountered on this trip was an issue with using the printer in the business center, but the front desk staff was very helpful and printed it out for us.We very much enjoyed our stay and would return on a future trip to Granbury.More</t>
   </si>
   <si>
+    <t>Lavenderblast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r282495085-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1170,9 @@
     <t>I recently stayed here and have no complaints. The people at the front desk were helpful and friendly. The room was clean and comfortable.  We went to the pool to sit in the spa . Wish the jets were stronger - but they weren't any weaker than your average hotel. The pool was very refreshing and the water wasn't too cold. The breakfast bar had a decent selection and was better than average. Your at the Holiday In. Which has cinnamon rolls - which is always a plus in my book.  I stay in hotels about 5 to 6 times a year. My 3rd time staying at a Holiday Inn Express - I will be back.More</t>
   </si>
   <si>
+    <t>Wes1208</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r281501364-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1197,9 @@
     <t>This hotel and their management is by far the most inconsiderate, rude, and unprofessional of any business I have ever encountered in my life.  The hotel manager, Lourdes, and the IHG customer care team did not assist me with my group booking which resulted in the GM canceling my reservations (without my permission) and me having to book at another hotel in Cleburne, Texas which welcomed me and my group of youth baseball players with open arms. I will never, and I recommend anyone traveling to Granbury, to never, ever, ever stay at this property. The Hilton Garden Inn on Lake Granbury is a much better option and with great management. God Bless.More</t>
   </si>
   <si>
+    <t>dockfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r280401936-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1218,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>John s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r267716385-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1239,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>texanadeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r263420389-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1266,9 @@
     <t>This Holiday Inn Express is lovely, the rooms are well equipped, very clean. Location is convenient to all of Granbury. Breakfast was adequate and the staff is friendly. These good attributes is the reason for the 3 star rating. There is just no excuse for the discomfort of the beds in this hotel. A good night's sleep should be the up most priority of any hotel.  These mattresses are not supportive, just hard. I travel frequently and have never had a bed this uncomfortable in over twenty years. This is just not acceptable, sadly this will not be my go-to hotel in Granbury.More</t>
   </si>
   <si>
+    <t>Ronna R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r260100415-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1284,9 @@
     <t>Rooms have been updated and are standard type rooms.  Microwave, refrigerator and coffee maker included.  Complimentary breakfast was good, but not large selection.  Ladies working breakfast area were really good at keeping coffee and food replenished.  Bed was a little hard for me and hotel was noisy late in the evening due to large and obviously unsupervised groups.  Front desk personnel were friendly and efficient.</t>
   </si>
   <si>
+    <t>vvgogh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r257560577-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1302,9 @@
     <t>clean rooms and friendly staff. We had a king leisure room. We stayed on the 3rd floor. The desk clerk was so nice and the breakfast was well stocked and good. Always nice to have a clean fresh room. we stayed on a sunday night and there were not a lot of people staying. We stayed in Granbury last year also at this same hotel and had a great stay.</t>
   </si>
   <si>
+    <t>Patricia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r257217223-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1326,9 @@
     <t>Our room was very clean and nice but the mattress...terrible!  Was very hard and outdated.A nice pillowtop would have made for a good night's sleep. Pillows were also mushy.The staff were very nice and aimed to please, especially the lady in the breakfast area.Don't get a room on the side of the hotel next to the motorcycle dealership if you are sleeping in,They start the cycles and ATV's in the back and move them out front before they open, it was very noisy!  Breakfast was good with lots of choices.  Our bathroom only had a shower and I like to take baths, don't know if they have rooms with a tub/shower or not.  We were very glad they do not allow dogs in the hotel.  We would definitely stay there again when they get new mattresses.More</t>
   </si>
   <si>
+    <t>Debbie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r231257232-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1347,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Peggy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r229266688-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1377,9 @@
     <t>The hotel itself is overall a pleasant place.  However, when we checked it it took 3 rooms before we got it right.  The first room smelled of smoke even though the entire hotel is supposedly smoke free.  The second room had a non-working television, and there was no one available to come up to see if they could get it to work.  The third room had a working television, but before it would work we had to go down and get a different remote so that we could use the remote in the room.  They changed cable providers, but did not bother to reset all the televisions before guests arrived.  In addition, the hotel guide did not have a listing of the correct television channels.  It was not a good beginning to our stay, but things did get better after that.  The breakfast was good and had a good variety of items to choose from  The lady who worked in the breakfast area was very pleasant and helpful.  The hotel was overall very clean and neat.More</t>
   </si>
   <si>
+    <t>Nicole C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226692646-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1404,9 @@
     <t>The only reason I gave this hotel 1, is due to the courteous staff and clean room.However, upon arrival, my kids asked for the Wi-Fi password only to discover that Charter had not come out to fix the Wi-Fi. My data jump from 27% to 75% usage, which means my bill will no doubt be higher by the end of this month! Then after we received our key to the 4th floor we were told that the elevator doesn't work!!! We had to carry our luggage up 60 steps as my youngest one counted them out! A little irritated, but still willing to stick it out... I had to go downstairs to the snack store and buy water for our unexpected journey upstairs only to discover they were out of water and only had coke!  Ugh!I called the Hilton and if it weren't for the reservation agent not knowing where her hotel was located, adding to my frustration, we would've left that night! Breakfast was as expected except for the fact that the pancake maker never worked! The hostess had to fix it every two minutes which left dirty tables empty food trays!! Again, loved the hospitality of the staff, but felt like Labor Day weekend should run much smoother. More</t>
   </si>
   <si>
+    <t>Lpierc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226450541-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1284,6 +1431,9 @@
     <t>Stayed 2 nights over Labor Day weekend.  Bed mattress very hard. Room clean when arrived. Room not cleaned next day. Had to ask for towels and have used towels picked up. Had to empty own trash and go get soap etc from maid.  Noisy hotel.  Elevator broken and no WIFI service all weekend.   Sad part is the rooms are new and appear nice but without comfortable bed its not worth the stay.  I would not recommendMore</t>
   </si>
   <si>
+    <t>Mommabearsmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226301945-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1446,9 @@
     <t xml:space="preserve">I've stayed in many luxury hotels that were not as clean and well appointed as this hotel. Comfy bed, sofa, fridge, microwave, coffee maker. Breakfast was good. Omelets, biscuits, sausage, fresh pancakes, along with fruit, yogurt, etc. Will stay again if the opportunity presents. </t>
   </si>
   <si>
+    <t>Leigh B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r225898902-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1320,6 +1473,9 @@
     <t>Internet was down the entire time I was here. Room was never cleaned during my stay here. Bed was made like a teenager had done it. Trash was never emptied and they placed clean towels on top if my dirty ones. Breakfast at 8am was totally gone, no milk, no juices and pancake machine was out of mix. One of the worst stays ever in my life at a hotel. I'd almost expect this from a lower coat chain and I'm severely disappointed in my stay here. More</t>
   </si>
   <si>
+    <t>Dee C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r225570950-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1338,6 +1494,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>3GingersMom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r216497536-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +1515,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Karen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r213109939-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1542,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>TexasHazelnuts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r207731287-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1572,9 @@
     <t>Fourteen of us stayed at this hotel for a mini family reunion. The staff let us use the common area once breakfast was over to visit, celebrate a birthday, play games, and meet up with each other before going out. The rooms were clean and comfortable. The breakfast buffet typical for this type of restaurant. I think the lady taking care of the buffet could have used some help to keep up with the Memorial Day weekend crowd though. Everything worked in our room. We would come back again.More</t>
   </si>
   <si>
+    <t>SDee C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r194775343-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1597,9 @@
   </si>
   <si>
     <t>Good hotel.  Restful and quiet.  I stayed one week.  The staff was very helpful and kind.  The continental breakfast was great and convenient for my travel to Granbury, TX.  I always enjoy my stay at the Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>Lstew55</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r187366920-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -1460,6 +1631,9 @@
 But the thing that really set me off was there was no hot water - at all - not even lukewarm water.  So, when we were leaving, I told the woman at the front desk that they needed to know we were not able to get any hot water during our stay.  To my shock, she said she knew and they had a plumber coming, but there just wasn't hot water for now.  Shouldn't we have been told this when: 1) we made the reservation, or 2). when we checked in? I felt it was very deceptive to take full price from me for the room, KNOWING there was no hot water available during our stay.  I am going to have to rethink my loyalty to Holiday Inn. This was...We booked to stay there because of an important doctor appointment the next day and the roads were treacherous with ice.  We got there and the room was fine. (No greeting about being a Priority Club member - was told there was nothing for Priority Club members unless you were Platinum)? Anyway, all was at least sort of ok.  My sister tried to call me  after we arrived and the gal at the front desk couldn't transfer the call, much to my sister's frustration - we ate a late breakfast at about 8:30 and the food was less than stellar as it had dried out from being out too long.But the thing that really set me off was there was no hot water - at all - not even lukewarm water.  So, when we were leaving, I told the woman at the front desk that they needed to know we were not able to get any hot water during our stay.  To my shock, she said she knew and they had a plumber coming, but there just wasn't hot water for now.  Shouldn't we have been told this when: 1) we made the reservation, or 2). when we checked in? I felt it was very deceptive to take full price from me for the room, KNOWING there was no hot water available during our stay.  I am going to have to rethink my loyalty to Holiday Inn. This was a very disappointing experience.More</t>
   </si>
   <si>
+    <t>wadec3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r177071619-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1485,6 +1659,9 @@
   </si>
   <si>
     <t>This hotel is brand new, clean, comfortable. The staff (front desk, breakfast and housekeeping) is very friendly and helpful. As future residents of Granbury, they were outgoing and welcoming; offering all kinds of advice on the area. One simple request was immediately dispatched and provided within a couple minutes. Everything here is new and there was he faintly pleasant and fresh aroma of new paint in our room. A great Holiday Inn Express property.More</t>
+  </si>
+  <si>
+    <t>MeinColorado</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r168523110-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -2013,43 +2190,47 @@
       <c r="A2" t="n">
         <v>57726</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>3949</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2061,47 +2242,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57726</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155810</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
@@ -2118,56 +2303,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57726</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155811</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2179,56 +2368,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57726</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136659</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2244,56 +2437,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57726</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155812</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2305,56 +2502,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57726</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>26606</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2366,56 +2567,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57726</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>155813</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2427,56 +2632,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57726</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>16023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2494,56 +2703,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57726</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>155814</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2561,56 +2774,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57726</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>40708</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2622,56 +2839,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57726</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155815</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2689,56 +2910,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57726</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155816</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2756,56 +2981,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57726</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155817</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2823,56 +3052,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57726</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>73748</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2888,56 +3121,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57726</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155818</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2955,56 +3192,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57726</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>178</v>
       </c>
-      <c r="K17" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>164</v>
-      </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3020,47 +3261,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57726</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>102737</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -3077,56 +3322,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57726</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>27870</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3138,56 +3387,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57726</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>155819</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3199,56 +3452,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57726</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>408</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3260,56 +3517,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57726</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>49598</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3321,56 +3582,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57726</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>155820</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3386,56 +3651,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57726</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>155821</v>
+      </c>
+      <c r="C24" t="s">
+        <v>259</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3453,56 +3722,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57726</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>155822</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3518,56 +3791,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="X25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57726</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>26379</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3579,56 +3856,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57726</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155823</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3646,50 +3927,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57726</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155824</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3701,56 +3986,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57726</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155825</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3762,56 +4051,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="X29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="Y29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57726</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>304</v>
+      </c>
+      <c r="C30" t="s">
+        <v>310</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3823,56 +4116,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57726</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>3951</v>
+      </c>
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3884,56 +4181,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57726</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>155826</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3951,41 +4252,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57726</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155827</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4004,50 +4309,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57726</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>155828</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="K34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4065,50 +4374,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57726</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155829</v>
+      </c>
+      <c r="C35" t="s">
+        <v>347</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="J35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="K35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4126,50 +4439,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57726</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>354</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4185,50 +4502,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57726</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155830</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4244,56 +4565,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="X37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57726</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155831</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4313,50 +4638,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57726</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155832</v>
+      </c>
+      <c r="C39" t="s">
+        <v>376</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4370,41 +4699,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57726</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>155833</v>
+      </c>
+      <c r="C40" t="s">
+        <v>384</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -4421,56 +4754,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="X40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57726</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155834</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4490,50 +4827,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57726</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155835</v>
+      </c>
+      <c r="C42" t="s">
+        <v>400</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="K42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="L42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4553,50 +4894,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57726</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155836</v>
+      </c>
+      <c r="C43" t="s">
+        <v>407</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="J43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="K43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="L43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -4612,56 +4957,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="X43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="Y43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57726</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>155837</v>
+      </c>
+      <c r="C44" t="s">
+        <v>416</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4681,50 +5030,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57726</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155838</v>
+      </c>
+      <c r="C45" t="s">
+        <v>422</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="J45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="K45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="L45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4744,50 +5097,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57726</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>5388</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="O46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4805,50 +5162,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57726</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>35143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>436</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="J47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="K47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="L47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -4868,50 +5229,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57726</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>20929</v>
+      </c>
+      <c r="C48" t="s">
+        <v>443</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="J48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="K48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="L48" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="O48" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4927,56 +5292,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>403</v>
+        <v>450</v>
       </c>
       <c r="X48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="Y48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57726</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7431</v>
+      </c>
+      <c r="C49" t="s">
+        <v>453</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="O49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4988,47 +5357,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="X49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="Y49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57726</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>155839</v>
+      </c>
+      <c r="C50" t="s">
+        <v>462</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="J50" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="L50" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
@@ -5055,47 +5428,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="X50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57726</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155840</v>
+      </c>
+      <c r="C51" t="s">
+        <v>471</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
@@ -5124,50 +5501,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57726</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>53308</v>
+      </c>
+      <c r="C52" t="s">
+        <v>476</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="J52" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="K52" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="L52" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="O52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5179,56 +5560,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="X52" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="Y52" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57726</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>71528</v>
+      </c>
+      <c r="C53" t="s">
+        <v>485</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="J53" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K53" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="O53" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5246,50 +5631,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57726</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>155841</v>
+      </c>
+      <c r="C54" t="s">
+        <v>492</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="J54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="L54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5309,48 +5698,52 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57726</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>22683</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="J55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5372,56 +5765,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="X55" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="Y55" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57726</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155842</v>
+      </c>
+      <c r="C56" t="s">
+        <v>508</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="K56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5439,56 +5836,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="X56" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="Y56" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57726</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>155843</v>
+      </c>
+      <c r="C57" t="s">
+        <v>518</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="J57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="K57" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5510,56 +5911,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="X57" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="Y57" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57726</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>154976</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="J58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="K58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -5581,56 +5986,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="X58" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="Y58" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57726</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>155844</v>
+      </c>
+      <c r="C59" t="s">
+        <v>537</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>485</v>
+        <v>543</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5652,56 +6061,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57726</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>155845</v>
+      </c>
+      <c r="C60" t="s">
+        <v>547</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="K60" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="O60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5723,13 +6136,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="X60" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="Y60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_373.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_373.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,177 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Mark A</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r605159795-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>55921</t>
+  </si>
+  <si>
+    <t>1176337</t>
+  </si>
+  <si>
+    <t>605159795</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Always great!</t>
+  </si>
+  <si>
+    <t>We are in Granbury often and ALWAYS stay here! Comfortable beds, quiet, friendly staff, nice pool and love the breakfast! HIE is usually standard everywhere we go, but here at Granbury, they go above and beyond! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>We are in Granbury often and ALWAYS stay here! Comfortable beds, quiet, friendly staff, nice pool and love the breakfast! HIE is usually standard everywhere we go, but here at Granbury, they go above and beyond! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r588149730-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>588149730</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Great Sleep! Great Comfort! Great People!</t>
+  </si>
+  <si>
+    <t>After checking out of our previous accommodations, we hesitantly decided to stay in another hotel in Granbury. We were NOT disappointed. Check in was fantastic. ‘Phoenix’ was an absolute professional pleasure to have awaiting us and other guests! Our room was clean, spacious and quiet. Clean room. Personal Keurig. Fridge. Ample space. Comfortable bed. Very quiet....couldn’t hear other guests or highway sounds.  Excellent room temperature and adjustability. Bathroom ventilation perfect! Shower drain and pressure were outstanding. Sleep quality, unparalleled (10 hours uninterrupted). Check-in and check-out, seamless. Parking was plenty and safe. My son had great space to stretch out and relax. From start to finish, this hotel was the perfect save from our previous ‘travel quality’ at the the same price hotel!A definite recommend and repeat! The staff Phoenix is a true asset and would be an outstanding recipient for an employee award! Thank you, Holiday Inn Express Granbury. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded June 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2018</t>
+  </si>
+  <si>
+    <t>After checking out of our previous accommodations, we hesitantly decided to stay in another hotel in Granbury. We were NOT disappointed. Check in was fantastic. ‘Phoenix’ was an absolute professional pleasure to have awaiting us and other guests! Our room was clean, spacious and quiet. Clean room. Personal Keurig. Fridge. Ample space. Comfortable bed. Very quiet....couldn’t hear other guests or highway sounds.  Excellent room temperature and adjustability. Bathroom ventilation perfect! Shower drain and pressure were outstanding. Sleep quality, unparalleled (10 hours uninterrupted). Check-in and check-out, seamless. Parking was plenty and safe. My son had great space to stretch out and relax. From start to finish, this hotel was the perfect save from our previous ‘travel quality’ at the the same price hotel!A definite recommend and repeat! The staff Phoenix is a true asset and would be an outstanding recipient for an employee award! Thank you, Holiday Inn Express Granbury. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r603474924-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>603474924</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great vacation stay!</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Granbury, TX while attending a family reunion. Twelve of our family stayed here and we enjoyed our stay very much! Very clean rooms, great fitness center, good selection of breakfast items, and located close to everything. We would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Granbury, TX while attending a family reunion. Twelve of our family stayed here and we enjoyed our stay very much! Very clean rooms, great fitness center, good selection of breakfast items, and located close to everything. We would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r596485583-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>596485583</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Good location, clean and family friendly</t>
+  </si>
+  <si>
+    <t>We were very pleased with this hotel. The rooms were spacious and clean. Nice size walk in shower and the ac worked great in this Texas heat. I wasn’t a fan of the pillows as they were like bean bags but that is the only negative. The indoor pool was large and accommodated our entire baseball team. They had a great variety of items for breakfast! Would stay again when we return to Granbury!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>We were very pleased with this hotel. The rooms were spacious and clean. Nice size walk in shower and the ac worked great in this Texas heat. I wasn’t a fan of the pillows as they were like bean bags but that is the only negative. The indoor pool was large and accommodated our entire baseball team. They had a great variety of items for breakfast! Would stay again when we return to Granbury!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r592113030-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>592113030</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Firm beds, room stayed 76 degrees :/</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff very friendly! Just didn’t care for the extra firm bed, or the AC that seemed to be froze up... our room stayed 76 degrees the entire night. It’s a nice hotel, again the staff was nice as well, we just prefer a softer bed!  :) MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff very friendly! Just didn’t care for the extra firm bed, or the AC that seemed to be froze up... our room stayed 76 degrees the entire night. It’s a nice hotel, again the staff was nice as well, we just prefer a softer bed!  :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r589064166-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>589064166</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>A big thank you. Thanks Phenix!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Holiday Inn for a week and a half and may I tell you, it was amazing. I am so thankful that I found this hotel for our stay. I would like to thank the staff and one in particular, Phenix. She was an awesome host and so kind. She helped my family with all that we needed. Again, a special thanks to Phenix. We will definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed at Holiday Inn for a week and a half and may I tell you, it was amazing. I am so thankful that I found this hotel for our stay. I would like to thank the staff and one in particular, Phenix. She was an awesome host and so kind. She helped my family with all that we needed. Again, a special thanks to Phenix. We will definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r589061239-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>589061239</t>
+  </si>
+  <si>
+    <t>Thank you to the staff, one in particular.</t>
+  </si>
+  <si>
+    <t>We stayed a week at Holiday Inn, in Granbry, Texas. I would like to thank the staff for an amazing visit. Epecially Pheniox, she was so polite the whole week, and always helped when we needed it. My family really enjoyed this hotel, and will definitely come back. Again I would love to thank Pheniox, and the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed a week at Holiday Inn, in Granbry, Texas. I would like to thank the staff for an amazing visit. Epecially Pheniox, she was so polite the whole week, and always helped when we needed it. My family really enjoyed this hotel, and will definitely come back. Again I would love to thank Pheniox, and the staff.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r585979289-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
-    <t>55921</t>
-  </si>
-  <si>
-    <t>1176337</t>
-  </si>
-  <si>
     <t>585979289</t>
   </si>
   <si>
@@ -174,22 +330,97 @@
     <t>Stayed at HIE for business.  Two nights in a row no soap or shampoo left in room.  Roach dead on floor in bathroom.  Same roach was there next day it wasn’t removed by cleaning staff.  Fitness center ventilation was not working and it was very hot.  Safety switch disabled on treadmill which is a safety hazard.  Equipment in fitness room is very low end.  Breakfast was supposed to be out by 6 AM and by 630 when we had to leave it was still being put out so we only got a bagel.  Won’t stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded June 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2018</t>
   </si>
   <si>
     <t>Stayed at HIE for business.  Two nights in a row no soap or shampoo left in room.  Roach dead on floor in bathroom.  Same roach was there next day it wasn’t removed by cleaning staff.  Fitness center ventilation was not working and it was very hot.  Safety switch disabled on treadmill which is a safety hazard.  Equipment in fitness room is very low end.  Breakfast was supposed to be out by 6 AM and by 630 when we had to leave it was still being put out so we only got a bagel.  Won’t stay here again.More</t>
   </si>
   <si>
-    <t>DAVID Y</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r578173096-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>578173096</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff at the front desk. Ample size breakfast area. Awesome cinnamon rolls. Clean and spacious room. (The bed was a little noisy. Cold a/c. Clean bath. Close to downtown area. Ample parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff at the front desk. Ample size breakfast area. Awesome cinnamon rolls. Clean and spacious room. (The bed was a little noisy. Cold a/c. Clean bath. Close to downtown area. Ample parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r575048818-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>575048818</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Perfectly Adequate Mid-Level Property</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here while in town for a Saturday evening show and a Sunday afternoon show at Granbury Live. Check in was a breeze, the room was clean, comfortable and quiet. HIE breakfasts have never been my favorites. OK but no more than that. Nice, helpful staff throughout.Recommended. Will return when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Wife and I stayed here while in town for a Saturday evening show and a Sunday afternoon show at Granbury Live. Check in was a breeze, the room was clean, comfortable and quiet. HIE breakfasts have never been my favorites. OK but no more than that. Nice, helpful staff throughout.Recommended. Will return when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r570230600-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>570230600</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Fabulous Hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while we were on a weekend get away.  The staff here is friendly and goes the extra mile to make sure each guest is well taken care of.  Our room was large, clean and extremely comfortable.  The shower was amazing.  The price was extremely economical as well.  We’ll definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while we were on a weekend get away.  The staff here is friendly and goes the extra mile to make sure each guest is well taken care of.  Our room was large, clean and extremely comfortable.  The shower was amazing.  The price was extremely economical as well.  We’ll definitely be back!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r568946253-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -207,105 +438,9 @@
     <t>we were visiting relatives in Tolar and stayed in Granbury, have used express before and went back, rooms were clean and smelled fresh, the breakfast was very tasty eggs were great and they always fix good bacon.  Always a good place to stay.MoreShow less</t>
   </si>
   <si>
-    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded April 17, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 17, 2018</t>
-  </si>
-  <si>
     <t>we were visiting relatives in Tolar and stayed in Granbury, have used express before and went back, rooms were clean and smelled fresh, the breakfast was very tasty eggs were great and they always fix good bacon.  Always a good place to stay.More</t>
   </si>
   <si>
-    <t>MDNied</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r578173096-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
-  </si>
-  <si>
-    <t>578173096</t>
-  </si>
-  <si>
-    <t>05/05/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comfortable </t>
-  </si>
-  <si>
-    <t>Friendly and helpful staff at the front desk. Ample size breakfast area. Awesome cinnamon rolls. Clean and spacious room. (The bed was a little noisy. Cold a/c. Clean bath. Close to downtown area. Ample parking. MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Friendly and helpful staff at the front desk. Ample size breakfast area. Awesome cinnamon rolls. Clean and spacious room. (The bed was a little noisy. Cold a/c. Clean bath. Close to downtown area. Ample parking. More</t>
-  </si>
-  <si>
-    <t>Tupelo010835</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r575048818-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
-  </si>
-  <si>
-    <t>575048818</t>
-  </si>
-  <si>
-    <t>04/22/2018</t>
-  </si>
-  <si>
-    <t>Perfectly Adequate Mid-Level Property</t>
-  </si>
-  <si>
-    <t>Wife and I stayed here while in town for a Saturday evening show and a Sunday afternoon show at Granbury Live. Check in was a breeze, the room was clean, comfortable and quiet. HIE breakfasts have never been my favorites. OK but no more than that. Nice, helpful staff throughout.Recommended. Will return when in the area.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Charlotte K, General Manager at Holiday Inn Express Granbury, responded to this reviewResponded April 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 26, 2018</t>
-  </si>
-  <si>
-    <t>Wife and I stayed here while in town for a Saturday evening show and a Sunday afternoon show at Granbury Live. Check in was a breeze, the room was clean, comfortable and quiet. HIE breakfasts have never been my favorites. OK but no more than that. Nice, helpful staff throughout.Recommended. Will return when in the area.More</t>
-  </si>
-  <si>
-    <t>judyeclark</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r570230600-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
-  </si>
-  <si>
-    <t>570230600</t>
-  </si>
-  <si>
-    <t>04/01/2018</t>
-  </si>
-  <si>
-    <t>Fabulous Hotel!</t>
-  </si>
-  <si>
-    <t>My husband and I stayed here while we were on a weekend get away.  The staff here is friendly and goes the extra mile to make sure each guest is well taken care of.  Our room was large, clean and extremely comfortable.  The shower was amazing.  The price was extremely economical as well.  We’ll definitely be back!MoreShow less</t>
-  </si>
-  <si>
-    <t>My husband and I stayed here while we were on a weekend get away.  The staff here is friendly and goes the extra mile to make sure each guest is well taken care of.  Our room was large, clean and extremely comfortable.  The shower was amazing.  The price was extremely economical as well.  We’ll definitely be back!More</t>
-  </si>
-  <si>
-    <t>Sandra P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r547742898-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -333,9 +468,6 @@
     <t>We arrived in Granbury late and needed a hotel. Front desk staff very friendly. Hotel lobby was very nice.  Room very clean. We left too early to enjoy the free breakfast. But we would definitely stay again. More</t>
   </si>
   <si>
-    <t>Charlotte H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r521221489-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -363,9 +495,6 @@
     <t>Very nice staff, all that we encountered was very helpful. Nice room, bed a little hard but I slept just fine. Breakfast was typical hotel style. Area is nice and safe. Hotel was quiet at night. Definitely would stay again. More</t>
   </si>
   <si>
-    <t>Shannon N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r507840884-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -393,9 +522,6 @@
     <t>We booked a weekend here for a family get together.  Once we all had checked in we noticed our refrigerator was not working properly.  We got with Nichole and Destiny at the front desk concerning the problem.  They immediately responded and move us to another room.  They were very sorry for our move and went out of their way to make sure we were well taken care of.  Hotel was an average Holiday Day Inn and was what we expected.  The morning buffet was well stocked and the morning crew was always nearby to refill any items running low.  The pool area was clean and had plenty of towels.  Overall, our stay was very good.  We noticed the staff working just as hard for others as they did for us.  1st time in Granbury and would stay here again.More</t>
   </si>
   <si>
-    <t>awunder2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r503957228-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -423,9 +549,6 @@
     <t>Super friendly staff and Very helpful. Clean and well maintained. Needs some improvement in the accessible rooms. Beds are too high. Has wifi,  hot breakfast, pool, and hot tub. Good location.  Nice roomsMore</t>
   </si>
   <si>
-    <t>REVoigt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r499444981-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -453,9 +576,6 @@
     <t>I stayed here as my regular Granbury hotel was sold out. It is very typical of a Holiday Inn Express. They have a pretty decent free breakfast. The rooms are comfortable and include all the basic amenities. My room was actually very large (two queen beds) and really looked like it should have had a sofa or something in the room to take up some of the extra space. This HIE has an indoor pool which is nice. All in all a good hotel at a fair price. More</t>
   </si>
   <si>
-    <t>Danyell T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r478991178-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -483,9 +603,6 @@
     <t>Absolutely loved my experience. The Staff is wonderful, very attentive, friendly, and helpful. The rooms are CLEAN and decorated very nicely. The hotel pool and hot tub were very clean and in working order at all times. The buffet breakfast was amazing! The outside of the hotel is very well kept as well as the lobby and other common areas. The cleaning personnel are were very helpful and on top of the rooms cleanliness. All in all my experience was great and I def recommend if you are staying in granary stay here! Thank you to all who made my time there enjoyable and pleasant.More</t>
   </si>
   <si>
-    <t>ChipOlga</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r478624419-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -504,9 +621,6 @@
     <t>We recently went to Granbury to celebrate our anniversary.  I tried to make a reservation at several recommended Bed &amp; Breakfasts, but they were all full.  So, instead I made a reservation at the Holiday Inn Express in Granbury through Priceline. We got a great deal. We were not disappointed in the least.  Holiday Inn was clean, roomy and the staff was helpful and friendly.  The employee managing the breakfast the morning of April 23rd was exceptional.  She was observant and offered help wherever she saw a need.  It was very refreshing!!  We'd stay again.More</t>
   </si>
   <si>
-    <t>KathDep</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r468862859-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -534,9 +648,6 @@
     <t>Booked this place the day of our need for it and got a very good rate.  We've stayed at the Best Western Inn and Suites next door and these two hotels are right next to each other, same parking lot.  I think I actually like the Holiday Inn a little better, BW was more dated.  Not sure why BW is so much higher in the Trip Advisor ratings than the HI because they are very comparable, so book whichever one is cheaper.  Our room was clean and quiet (even though the hotel was full) and they had free WiFi, no need for a password.  Staff was very friendly.More</t>
   </si>
   <si>
-    <t>Kendall A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r465163147-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -564,9 +675,6 @@
     <t>I liked it here.  It is well located.  Everything was very clean and they offer breakfast in the morning.  Holiday Inn Express is very reliable in these ways.  Lots of parking.  Friendly staff.  I would stay here again.More</t>
   </si>
   <si>
-    <t>CLARENCE B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r462994303-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -591,9 +699,6 @@
     <t>Very pleasant experience. Staff was courteous, professional and a wealth of local knowledge.  Room was clean and well arranged.  Really appreciated the walk-in shower with a door and not the usual tub/curtain combination.More</t>
   </si>
   <si>
-    <t>John M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r458613393-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -618,9 +723,6 @@
     <t>The wife and I stayed in Granbury for the weekend experience of the Opera House and Revolver Brewery. This hotel was eveerything we needed - grat room, great service, a really nice breakfast available. The desk personnel couldn't have been nicer, and the lady that served the breakfast was friendly and helpful both mornings we were there, Loved it.More</t>
   </si>
   <si>
-    <t>Isabel S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r457950211-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -645,9 +747,6 @@
     <t>we found it via booking.com and liked it because it was saying 490ft. room and had nice photos with a sifa next to the 2 queen beds. we didnt book it instead we just walked in. we got the same rate as on the internet but the room eas completely different. when i showed the girl at the reception their advertised photos on booking.com she told me thats for the suite.thankfully we got it refunded but wrong description snd photos are misleading and not acceptable in my opinion.More</t>
   </si>
   <si>
-    <t>Dwayne G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r438304617-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -675,9 +774,6 @@
     <t>I have stayed here several times. It's more than enough. Nothing fancy but everything you need, friendly, clean and comfortable. Breakfast is good, pancakes, fruit, fresh coffee and juice. Kind of like a home away from home. More</t>
   </si>
   <si>
-    <t>TravelingMax77</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r429559043-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -705,9 +801,6 @@
     <t>Reserved a Queen Suite and got Queen Regular which was very small for a 4 person family. Also, past time for an update; walls are dingy and carpets look dirty. Best stay at HIE Glen Rose. My navigation in my 2016 Escalade didn't know where it was. More</t>
   </si>
   <si>
-    <t>James M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r408280529-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -738,9 +831,6 @@
     <t>We are not frequent Holiday Inn guests.  The brand we usually use does not have a property in Granbury.  We had a positive experience!The staff is friendly.  The hotels is well maintained and clean.  The attendant at the breakfast area was very welcoming.The only negative is that the room door did not close to locked on its own. If you stay make sure to pull your door all the way closed.Overall very positive experience!More</t>
   </si>
   <si>
-    <t>jon b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r397923927-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -768,9 +858,6 @@
     <t>Our RV broke down on a road trip. A couple of other hotels didn't even bother to answer the phone when we called. The lady at the desk when I called here was ultra helpful and took care of us. We had a great stay and Granbury was a nice little surprise for us, truly a hidden gem of a town. The hotel was clean, the breakfast was good and the staff was always extremely friendly and helpful. The location is convenient if you have a car, I didn't see too much within walking distance (unless you want to cross the highway on foot).  I would definitely stay here again. More</t>
   </si>
   <si>
-    <t>swfcpilot</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r396797106-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -795,9 +882,6 @@
     <t>I don't know about other parts of the hotel but in room 215 I had the fastest wi-fi I've ever used in any hotel.  I was able to make a video call to the family back home and even streamed Netflix in HD as a test without a single pause or skip.  After being outside in 100+ heat all day at the race track in Cresson, the super cold air conditioning was a blessing as was the indoor pool to cool off in and the hot tub to relax sore muscles.  Breakfast was fresh and tasty with all the regular items.  Biscuits were not dry at all like some places I've stayed and all the hot foods were hot.  Satellite TV with full interactive guide was a plus. We'll be back again!More</t>
   </si>
   <si>
-    <t>B52Gunner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r389861229-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -822,9 +906,6 @@
     <t>Upon on arrival, the blonde lady at the front desk, no Welcome to Holiday Inn , just the name on the reservation, here is you key and access code for Wi-Fi and breakfast is from 6 to 10, no information on the hotel and services available. The hotel and rooms were very clean and nice. Front Desk personnel need some training in SERVICE.More</t>
   </si>
   <si>
-    <t>NEWLKAT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r386682691-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -846,9 +927,6 @@
     <t>This hotel is nicely decorated and clean, and the rooms nicely appointed.  The beds however were a bit firm.  I think our main issue was the lack of hot water.  I took a shower on full hot in the morning and it was just warm, my sister took a shower shortly after me and it was a cold one.  I will say the hotel was sold out maybe everyone using the showers at the same time.  The breakfast was ok, liked the cinnamon rolls  they seemed to keep it stocked well, so there was still food when we got there.More</t>
   </si>
   <si>
-    <t>Gerald N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r378026768-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -873,7 +951,121 @@
     <t>Stayed over the memorial day weekend so the hotel was full and needed to stay in their king deluxe room. The hotel staff handled reservation and introduced hotel room keys well.  Room was very nice. The room did not have an extra blanket in the closet so we used an extra mattress pad. The room had a refrigerator and microwave and a keurig.  The coffee in the lobby was cold from the morning. The breakfast is limited but tasted very good.   No bananas and orange drink instead of juice. Second morning no skim milk.  The breakfast hostess was very good and tried to ensure everyone ate before closing up and helped patrons with their dishes.  I was shocked that the maids on the second night did not refurbish the coffee k cups and teas.  I am sure that would not be hotel policy but we got back too late to have staff find us more.  More</t>
   </si>
   <si>
-    <t>krharvey</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r369953274-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>369953274</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Most of the hotels in Granbury were fully booked when our group of 13 decided to spend our annual get-together weekend in Granbury. After several less than satisfying phone calls we weren't quite sure what to expect. The person answering the phone several times from different callers were less than what you normally experience from a hotel. However, once we arrived, everything was exactly what we expect from Holiday Inn Express....polite helpful front desk and pretty much the same amenities. We were very satisfied. Room was well appointed, breakfast was typical hotel free breakfast. We stayed on the 4th floor and in spite of the hotel being full was very quiet. All in all, exactly what we wanted. Could maybe use a bit of help on the telephone part, but all is well that ends well. Beds were confortable and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Kim S, Loyalty Champion at Holiday Inn Express Granbury, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Most of the hotels in Granbury were fully booked when our group of 13 decided to spend our annual get-together weekend in Granbury. After several less than satisfying phone calls we weren't quite sure what to expect. The person answering the phone several times from different callers were less than what you normally experience from a hotel. However, once we arrived, everything was exactly what we expect from Holiday Inn Express....polite helpful front desk and pretty much the same amenities. We were very satisfied. Room was well appointed, breakfast was typical hotel free breakfast. We stayed on the 4th floor and in spite of the hotel being full was very quiet. All in all, exactly what we wanted. Could maybe use a bit of help on the telephone part, but all is well that ends well. Beds were confortable and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r367233529-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>367233529</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Okay Place</t>
+  </si>
+  <si>
+    <t>This was an 'ok' place to stay.  I was not overly impressed.When I arrived, there was a car parked in front of the door....thought it was a guest checking in.  Turned out that it wasn't - an employee was parking there and continued to park there that afternoon and the next day. My room was clean, but it had a 'musty' smell to it.  Also, the thermostat on the wall did not work and there was a note on it to adjust the a/c on the window unit controls.The pillows were TERRIBLE!!!!  They need to be replaced!The coffee in the lobby was not fresh and hot that afternoon or evening.The breakfast was just okay....not great, but passable.I probably will not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kim S, Loyalty Champion at Holiday Inn Express Granbury, responded to this reviewResponded April 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2016</t>
+  </si>
+  <si>
+    <t>This was an 'ok' place to stay.  I was not overly impressed.When I arrived, there was a car parked in front of the door....thought it was a guest checking in.  Turned out that it wasn't - an employee was parking there and continued to park there that afternoon and the next day. My room was clean, but it had a 'musty' smell to it.  Also, the thermostat on the wall did not work and there was a note on it to adjust the a/c on the window unit controls.The pillows were TERRIBLE!!!!  They need to be replaced!The coffee in the lobby was not fresh and hot that afternoon or evening.The breakfast was just okay....not great, but passable.I probably will not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r365744152-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>365744152</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and clean</t>
+  </si>
+  <si>
+    <t>Friendly staff and nice clean Holiday Inn Express.Excellent breakfast with a comfortable eating area.Spacious room with comfortable bed and sitting area.Good size television.Nice fridge, coffee pot and microwave.Only complaint is that every door has NO GUNS ALLOWED in large white letters. The main entrance has a proper 30.07 sign which does not allow open carry which is fine with me but I do not travel without a weapon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lourdes D, Front Desk Supervisor  at Holiday Inn Express Granbury, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff and nice clean Holiday Inn Express.Excellent breakfast with a comfortable eating area.Spacious room with comfortable bed and sitting area.Good size television.Nice fridge, coffee pot and microwave.Only complaint is that every door has NO GUNS ALLOWED in large white letters. The main entrance has a proper 30.07 sign which does not allow open carry which is fine with me but I do not travel without a weapon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r365445611-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>365445611</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean </t>
+  </si>
+  <si>
+    <t>The hotel is located about a 5 minute drive from the cute downtown area (which I love)Reception - staff were very helpful and efficient the various times I have dealt with them Communal areas - bright, modern and very cleanBreakfast - as you would expect. Breads, muffins, one meat (sausage patty) omelet,  biscuits, yogurt  and cinnamon rolls. Pretty low key and other than the cinnamon roll, I did struggle to find something I wanted to eat. Although that's mostly the case with most hotel breakfasts. (It's free, so you can't have an issue over breakfast)Rooms - clean, but felt more dated than most holiday inn express rooms I've stayed in. Maybe it was the brown color scheme. It just didn't seem a bright airy space. The same to be said about the bathrooms.Overall nothing to really complain about, but next time I visit I will stay at one of the other hotels or B&amp;B's in the town square.MoreShow less</t>
+  </si>
+  <si>
+    <t>Lourdes D, Front Desk Supervisor at Holiday Inn Express Granbury, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located about a 5 minute drive from the cute downtown area (which I love)Reception - staff were very helpful and efficient the various times I have dealt with them Communal areas - bright, modern and very cleanBreakfast - as you would expect. Breads, muffins, one meat (sausage patty) omelet,  biscuits, yogurt  and cinnamon rolls. Pretty low key and other than the cinnamon roll, I did struggle to find something I wanted to eat. Although that's mostly the case with most hotel breakfasts. (It's free, so you can't have an issue over breakfast)Rooms - clean, but felt more dated than most holiday inn express rooms I've stayed in. Maybe it was the brown color scheme. It just didn't seem a bright airy space. The same to be said about the bathrooms.Overall nothing to really complain about, but next time I visit I will stay at one of the other hotels or B&amp;B's in the town square.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r362335567-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>362335567</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>A man and his two dogs!</t>
+  </si>
+  <si>
+    <t>I live in Granbury and had major water damage in my home. My insurance carrier (USAA) put me and the dogs up at the Holliday Express for six and a half weeks.My stay was long, but the staff took care of me as well as I could ever expect. All the girls behind the desk, to all the girls who took care of me by cleaning my room every day. They all were friendly and wonderful. Thanks to all and especially USAA for alloying me to stay at the best hotel in Granbury Texas!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r358229791-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -894,9 +1086,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Cole P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r356153687-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -921,9 +1110,6 @@
     <t>The worst experience I have ever had at a hotel. Rude, unfriendly staff completely unwilling to accommodate us. We had a reservation and they couldn't seem to get a room ready for us. After waiting hours I asked about canceling my reservation, it was confirmed by two employees that I would be able to cancel. 15 mins later after booking another hotel they told me to bad they were not going to cancel it. After calling IHG customer service, since I have been a member for years, the hotel manager wouldn't even work with senior customer reps to do anything  for us. Don't waste your time here.More</t>
   </si>
   <si>
-    <t>ctbruinfan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r353378265-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -948,9 +1134,6 @@
     <t>Rooms are spacious with desk dresser and mine had 2 beds. Very convenient having a fridge and micro wave oven. In room coffee maker was nice as well. My only complaint has to do with breakfast. The coffee was always Luke warm at best. One day I found fresh hot coffee on upper shelf. Also it would be nice if it started at 6 instead of 6:30am.More</t>
   </si>
   <si>
-    <t>David B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r351708949-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -966,9 +1149,6 @@
     <t>Comfy rooms, indoor pool, great location, superior service, and free breakfast (love the cinnamon buns). Stayed with kids and two young grandchildren.  They were nice enough to get us on the same room and upgraded one room to a king "suite" which really helped since it had a sofa sleeper.  Only two "problems" and they were minor.....juice machine broken (stuff happens, but we don't drink coffee...maybe run out and buy some gallons of juice?) and the pillows were crummy....which is too bad because the bed was very comfortable.  All in all good place for very reasonable price.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Sonya T, Guest Relations Manager at Holiday Inn Express Granbury, responded to this reviewResponded March 4, 2016</t>
   </si>
   <si>
@@ -978,9 +1158,6 @@
     <t>Comfy rooms, indoor pool, great location, superior service, and free breakfast (love the cinnamon buns). Stayed with kids and two young grandchildren.  They were nice enough to get us on the same room and upgraded one room to a king "suite" which really helped since it had a sofa sleeper.  Only two "problems" and they were minor.....juice machine broken (stuff happens, but we don't drink coffee...maybe run out and buy some gallons of juice?) and the pillows were crummy....which is too bad because the bed was very comfortable.  All in all good place for very reasonable price.More</t>
   </si>
   <si>
-    <t>Jessica W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r349505429-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -999,9 +1176,6 @@
     <t>This was a very clean hotel. The staff was very friendly. The beds were very comfortable. The pillows were not the best but, are any hotel pillows?! Breakfast was what you would expect. We just made it down to eat when it was about 5 minutes until they ended the breakfast. The lady was kind and left it out for a little extra time. She even came and asked us if we had everything we needed before she closed it down. I felt the value was great! I would stay here again!More</t>
   </si>
   <si>
-    <t>KTrouble</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r337693959-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +1194,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>RobertWenger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r334073393-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1038,9 +1209,6 @@
     <t xml:space="preserve">Many Holiday Inn Express' offer breakfast starting at 6:30 am. Not 6:29 but 6:30. This particular Inn recognizes many guests must be on the road well before. The employees go out of their way to adjust this time frame, often opening a half hour early. if that best serves their Customer's schedule.  They recognize their visitors needs, I do not like to single out anyone in particular because all employees at this Express are Excellent. But I do want to recognize their Night Auditor Eric. Outstanding Holiday Inn Employee always with a smile. Rooms are clean- A very good value. My choice in this area. </t>
   </si>
   <si>
-    <t>scooterchuck</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r312840439-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1059,9 +1227,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>Doxiedad5619</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r295079545-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1080,9 +1245,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>B C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r292951503-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1098,9 +1260,6 @@
     <t>HORRIBLE people run this place.  I was physically unable to reach this location due to my pickup overheating in 100 degree weather.  I was not permitted to cancel my reservation or transfer it to another Holiday Inn.  The management was too eager to grab my $100 to be nice or civil.  I will not be making any more reservations there and will not recommend this location to anyone!!</t>
   </si>
   <si>
-    <t>GloriaByington</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r290116179-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1125,9 +1284,6 @@
     <t>We had a great stay and so much fun in Granbury.  The room was clean and modern and the INCLUDED breakfast was delicious.  Staff was professional and so friendly.  Location is superb, close to everything.  WE definitely recommend this hotel.  That is the only place we will stay when we are in Granbury.More</t>
   </si>
   <si>
-    <t>luv2travelfromAR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r287739529-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1146,9 +1302,6 @@
     <t>We stayed at Holiday Inn Express Granbury over the 4th of July weekend.  It was a busy time for them, but everyone at the hotel seemed to go above and beyond to make our stay comfortable and enjoyable.  We had requested adjoining rooms after booking our stay, and they were assigned to us prior to our arrival.  The rooms were clean and nicely appointed.  Each bathroom had shampoo, conditioner, and lotion from Bath &amp; Body Works.  Breakfasts each morning were hot and fresh and had a wide array of foods available.  Each day, there was some sort of egg served (either scrambled or an omelet), breakfast meats, biscuits, gravy, assorted breads and muffins, cereals, pancakes, and various fruits.  The housekeeping staff did a great job of cleaning our rooms, and even folded my daughter's blankie and "tucked in" her stuffed animals when they made the bed.  It's little things like that that are above and beyond that can turn a good stay into a great one.The only problem we encountered on this trip was an issue with using the printer in the business center, but the front desk staff was very helpful and printed it out for us.We very much enjoyed our stay and would return on a future trip to Granbury.More</t>
   </si>
   <si>
-    <t>Lavenderblast</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r282495085-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1170,9 +1323,6 @@
     <t>I recently stayed here and have no complaints. The people at the front desk were helpful and friendly. The room was clean and comfortable.  We went to the pool to sit in the spa . Wish the jets were stronger - but they weren't any weaker than your average hotel. The pool was very refreshing and the water wasn't too cold. The breakfast bar had a decent selection and was better than average. Your at the Holiday In. Which has cinnamon rolls - which is always a plus in my book.  I stay in hotels about 5 to 6 times a year. My 3rd time staying at a Holiday Inn Express - I will be back.More</t>
   </si>
   <si>
-    <t>Wes1208</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r281501364-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1347,6 @@
     <t>This hotel and their management is by far the most inconsiderate, rude, and unprofessional of any business I have ever encountered in my life.  The hotel manager, Lourdes, and the IHG customer care team did not assist me with my group booking which resulted in the GM canceling my reservations (without my permission) and me having to book at another hotel in Cleburne, Texas which welcomed me and my group of youth baseball players with open arms. I will never, and I recommend anyone traveling to Granbury, to never, ever, ever stay at this property. The Hilton Garden Inn on Lake Granbury is a much better option and with great management. God Bless.More</t>
   </si>
   <si>
-    <t>dockfam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r280401936-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1365,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>John s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r267716385-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1239,9 +1383,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>texanadeb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r263420389-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1266,9 +1407,6 @@
     <t>This Holiday Inn Express is lovely, the rooms are well equipped, very clean. Location is convenient to all of Granbury. Breakfast was adequate and the staff is friendly. These good attributes is the reason for the 3 star rating. There is just no excuse for the discomfort of the beds in this hotel. A good night's sleep should be the up most priority of any hotel.  These mattresses are not supportive, just hard. I travel frequently and have never had a bed this uncomfortable in over twenty years. This is just not acceptable, sadly this will not be my go-to hotel in Granbury.More</t>
   </si>
   <si>
-    <t>Ronna R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r260100415-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1284,9 +1422,6 @@
     <t>Rooms have been updated and are standard type rooms.  Microwave, refrigerator and coffee maker included.  Complimentary breakfast was good, but not large selection.  Ladies working breakfast area were really good at keeping coffee and food replenished.  Bed was a little hard for me and hotel was noisy late in the evening due to large and obviously unsupervised groups.  Front desk personnel were friendly and efficient.</t>
   </si>
   <si>
-    <t>vvgogh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r257560577-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1437,6 @@
     <t>clean rooms and friendly staff. We had a king leisure room. We stayed on the 3rd floor. The desk clerk was so nice and the breakfast was well stocked and good. Always nice to have a clean fresh room. we stayed on a sunday night and there were not a lot of people staying. We stayed in Granbury last year also at this same hotel and had a great stay.</t>
   </si>
   <si>
-    <t>Patricia W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r257217223-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1326,7 +1458,106 @@
     <t>Our room was very clean and nice but the mattress...terrible!  Was very hard and outdated.A nice pillowtop would have made for a good night's sleep. Pillows were also mushy.The staff were very nice and aimed to please, especially the lady in the breakfast area.Don't get a room on the side of the hotel next to the motorcycle dealership if you are sleeping in,They start the cycles and ATV's in the back and move them out front before they open, it was very noisy!  Breakfast was good with lots of choices.  Our bathroom only had a shower and I like to take baths, don't know if they have rooms with a tub/shower or not.  We were very glad they do not allow dogs in the hotel.  We would definitely stay there again when they get new mattresses.More</t>
   </si>
   <si>
-    <t>Debbie J</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r256727355-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>256727355</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>will never stay there again</t>
+  </si>
+  <si>
+    <t>It was getting close to Valentine's Weekend and the b&amp;b's were all booked up. I had been wanting to take my love to Granbury as I remember it from a few years ago being quaint, quiet, and cozy. Felt like I was so far away from everything. It's not that way now. We thought, well, we'll stay at Holiday Inn Express. It looks nice. I've had a good experience at another one. My company uses them for out of town travelers coming to the office and when staff are in training and conferences. This time, we were put into a handicapped room which we didn't need but thought it wouldn't be a big deal. The room was nice. Checked in, left to explore the town, came back to change, go to dinner, and the drive in movie. Came back from the drive in movie at midnight. Took a shower. The handicapped bathroom has no ledge or step or ridge for the shower so the bathroom flooded. Water went clear over to the opposite wall. I am glad I did not have any belongings (luggage or make up bag or shoes) on the floor by the sink because everything would have been soaked. There was a drain so I figured the water would go down the drain. It didn't. Went to front desk and asked if they could mop up the  water. Was told housekeeping is gone and he couldn't leave...It was getting close to Valentine's Weekend and the b&amp;b's were all booked up. I had been wanting to take my love to Granbury as I remember it from a few years ago being quaint, quiet, and cozy. Felt like I was so far away from everything. It's not that way now. We thought, well, we'll stay at Holiday Inn Express. It looks nice. I've had a good experience at another one. My company uses them for out of town travelers coming to the office and when staff are in training and conferences. This time, we were put into a handicapped room which we didn't need but thought it wouldn't be a big deal. The room was nice. Checked in, left to explore the town, came back to change, go to dinner, and the drive in movie. Came back from the drive in movie at midnight. Took a shower. The handicapped bathroom has no ledge or step or ridge for the shower so the bathroom flooded. Water went clear over to the opposite wall. I am glad I did not have any belongings (luggage or make up bag or shoes) on the floor by the sink because everything would have been soaked. There was a drain so I figured the water would go down the drain. It didn't. Went to front desk and asked if they could mop up the  water. Was told housekeeping is gone and he couldn't leave the desk so he gave us towels to mop it up ourselves. Tried to go to sleep and the people next door had their tv blaring, talking over it, laughing, yelling, sounded like they were drinking with the things they were saying. We also had people running around upstairs, sounded like kids. Went to the front desk again. He called them, they turned it off and were quiet for 3 minutes. Then it was back to being loud. There is no way we could sleep. Went to the front desk again. He didn't call them, he didn't do anything. He said he might have a room with two beds on a different floor that we could move to but that's not what we paid for. They had no other kings available. So much for romance on Valentine's Night. We left the hotel at 1 am, drove to Dallas and made it home at 4 am. We stayed in the hotel room maybe an hour, if that. We requested a refund. We rcvd $22. Seriously. $22.00.  We will never stay there again nor at any other Holiday Inn. I don't think we'll be going to Granbury again, period.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Granbury, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>It was getting close to Valentine's Weekend and the b&amp;b's were all booked up. I had been wanting to take my love to Granbury as I remember it from a few years ago being quaint, quiet, and cozy. Felt like I was so far away from everything. It's not that way now. We thought, well, we'll stay at Holiday Inn Express. It looks nice. I've had a good experience at another one. My company uses them for out of town travelers coming to the office and when staff are in training and conferences. This time, we were put into a handicapped room which we didn't need but thought it wouldn't be a big deal. The room was nice. Checked in, left to explore the town, came back to change, go to dinner, and the drive in movie. Came back from the drive in movie at midnight. Took a shower. The handicapped bathroom has no ledge or step or ridge for the shower so the bathroom flooded. Water went clear over to the opposite wall. I am glad I did not have any belongings (luggage or make up bag or shoes) on the floor by the sink because everything would have been soaked. There was a drain so I figured the water would go down the drain. It didn't. Went to front desk and asked if they could mop up the  water. Was told housekeeping is gone and he couldn't leave...It was getting close to Valentine's Weekend and the b&amp;b's were all booked up. I had been wanting to take my love to Granbury as I remember it from a few years ago being quaint, quiet, and cozy. Felt like I was so far away from everything. It's not that way now. We thought, well, we'll stay at Holiday Inn Express. It looks nice. I've had a good experience at another one. My company uses them for out of town travelers coming to the office and when staff are in training and conferences. This time, we were put into a handicapped room which we didn't need but thought it wouldn't be a big deal. The room was nice. Checked in, left to explore the town, came back to change, go to dinner, and the drive in movie. Came back from the drive in movie at midnight. Took a shower. The handicapped bathroom has no ledge or step or ridge for the shower so the bathroom flooded. Water went clear over to the opposite wall. I am glad I did not have any belongings (luggage or make up bag or shoes) on the floor by the sink because everything would have been soaked. There was a drain so I figured the water would go down the drain. It didn't. Went to front desk and asked if they could mop up the  water. Was told housekeeping is gone and he couldn't leave the desk so he gave us towels to mop it up ourselves. Tried to go to sleep and the people next door had their tv blaring, talking over it, laughing, yelling, sounded like they were drinking with the things they were saying. We also had people running around upstairs, sounded like kids. Went to the front desk again. He called them, they turned it off and were quiet for 3 minutes. Then it was back to being loud. There is no way we could sleep. Went to the front desk again. He didn't call them, he didn't do anything. He said he might have a room with two beds on a different floor that we could move to but that's not what we paid for. They had no other kings available. So much for romance on Valentine's Night. We left the hotel at 1 am, drove to Dallas and made it home at 4 am. We stayed in the hotel room maybe an hour, if that. We requested a refund. We rcvd $22. Seriously. $22.00.  We will never stay there again nor at any other Holiday Inn. I don't think we'll be going to Granbury again, period.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r240105010-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>240105010</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Early Check In</t>
+  </si>
+  <si>
+    <t>Hotel was very clean.  Breakfast, while challeged with a large group of soccer patrons, was well anticipated and prepared by staff to keep up with the numbers, and the food quality was good.  Bed mattress was lumpy, as you could feel the pressure points while sleeping.  Something was happening with the pipes, as several times you would hear this repetitive popping from the wall between bathroom and sleeping area, tappering off over a 3-5 minute period.  Friends 4  floors higher experienced the very same thing.  Tried to check in at 12:30, but was told they were full the night before and check in would be at 3.  Later determined that our friends got to check in at 2.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Hotel was very clean.  Breakfast, while challeged with a large group of soccer patrons, was well anticipated and prepared by staff to keep up with the numbers, and the food quality was good.  Bed mattress was lumpy, as you could feel the pressure points while sleeping.  Something was happening with the pipes, as several times you would hear this repetitive popping from the wall between bathroom and sleeping area, tappering off over a 3-5 minute period.  Friends 4  floors higher experienced the very same thing.  Tried to check in at 12:30, but was told they were full the night before and check in would be at 3.  Later determined that our friends got to check in at 2.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r236806011-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>236806011</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Affordable and clean</t>
+  </si>
+  <si>
+    <t>Okay, I can't comment on the breakfast because the bed was so comfy that I slept in!  The price was VERY affordable, the room HUGE and the place clean and convenient.  The a/c worked great and the room was quiet.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r235033426-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>235033426</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Great Jacuzzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great time in Granbury.  We saw the play Legally Blonde, which was excellent.  The Service was great. At breakfast, coffee was refilled for us many times and it s self serve. I loved the pancake machine. Delicious pancakes.  Bed comfy. Room clean and pleasant. Jacuzzi and heated pool very awesome.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r234517084-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
+  </si>
+  <si>
+    <t>234517084</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Could be great</t>
+  </si>
+  <si>
+    <t>In our experience, we have found Holiday Inn Express hotels to be one of the most consistent hotel chains we frequent.  For the most part, the Granbury HiE meets this expectation.  The property and room were immaculately clean, well appointed, the breakfast bar was well stocked and serviced, the staff was friendly and attentive, the TV service was exceptional (37" LG LCD, lots of channels, many in HD), one of the fastest wifi speeds we've had at a Texas hotel. So why only 3 stars?  Two issues. 1) The walls seem to be a bit thin.  The person in the room next to us snored for the first 3 hours of the night and we could not only hear them, we could feel a slight vibration through the wall.  Not much to be done about that I suppose.  2) The mattress was not nearly as comfortable as other HiE locations where we've stayed. The bed also had a mattress cover with a plastic lining which made lots of noise.  My wife is a light sleeper and, every time I changed positions, it would disturb her sleep. I really wanted to give this hotel a top rating. It seems they work very hard at hospitality. But sleeping is one of the primary reasons for a hotel and this one failed to deliver a good experience in that regard.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Granbury, responded to this reviewResponded October 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2014</t>
+  </si>
+  <si>
+    <t>In our experience, we have found Holiday Inn Express hotels to be one of the most consistent hotel chains we frequent.  For the most part, the Granbury HiE meets this expectation.  The property and room were immaculately clean, well appointed, the breakfast bar was well stocked and serviced, the staff was friendly and attentive, the TV service was exceptional (37" LG LCD, lots of channels, many in HD), one of the fastest wifi speeds we've had at a Texas hotel. So why only 3 stars?  Two issues. 1) The walls seem to be a bit thin.  The person in the room next to us snored for the first 3 hours of the night and we could not only hear them, we could feel a slight vibration through the wall.  Not much to be done about that I suppose.  2) The mattress was not nearly as comfortable as other HiE locations where we've stayed. The bed also had a mattress cover with a plastic lining which made lots of noise.  My wife is a light sleeper and, every time I changed positions, it would disturb her sleep. I really wanted to give this hotel a top rating. It seems they work very hard at hospitality. But sleeping is one of the primary reasons for a hotel and this one failed to deliver a good experience in that regard.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r231257232-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -1347,9 +1578,6 @@
     <t>March 2014</t>
   </si>
   <si>
-    <t>Peggy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r229266688-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1377,9 +1605,6 @@
     <t>The hotel itself is overall a pleasant place.  However, when we checked it it took 3 rooms before we got it right.  The first room smelled of smoke even though the entire hotel is supposedly smoke free.  The second room had a non-working television, and there was no one available to come up to see if they could get it to work.  The third room had a working television, but before it would work we had to go down and get a different remote so that we could use the remote in the room.  They changed cable providers, but did not bother to reset all the televisions before guests arrived.  In addition, the hotel guide did not have a listing of the correct television channels.  It was not a good beginning to our stay, but things did get better after that.  The breakfast was good and had a good variety of items to choose from  The lady who worked in the breakfast area was very pleasant and helpful.  The hotel was overall very clean and neat.More</t>
   </si>
   <si>
-    <t>Nicole C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226692646-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1404,9 +1629,6 @@
     <t>The only reason I gave this hotel 1, is due to the courteous staff and clean room.However, upon arrival, my kids asked for the Wi-Fi password only to discover that Charter had not come out to fix the Wi-Fi. My data jump from 27% to 75% usage, which means my bill will no doubt be higher by the end of this month! Then after we received our key to the 4th floor we were told that the elevator doesn't work!!! We had to carry our luggage up 60 steps as my youngest one counted them out! A little irritated, but still willing to stick it out... I had to go downstairs to the snack store and buy water for our unexpected journey upstairs only to discover they were out of water and only had coke!  Ugh!I called the Hilton and if it weren't for the reservation agent not knowing where her hotel was located, adding to my frustration, we would've left that night! Breakfast was as expected except for the fact that the pancake maker never worked! The hostess had to fix it every two minutes which left dirty tables empty food trays!! Again, loved the hospitality of the staff, but felt like Labor Day weekend should run much smoother. More</t>
   </si>
   <si>
-    <t>Lpierc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226450541-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1431,9 +1653,6 @@
     <t>Stayed 2 nights over Labor Day weekend.  Bed mattress very hard. Room clean when arrived. Room not cleaned next day. Had to ask for towels and have used towels picked up. Had to empty own trash and go get soap etc from maid.  Noisy hotel.  Elevator broken and no WIFI service all weekend.   Sad part is the rooms are new and appear nice but without comfortable bed its not worth the stay.  I would not recommendMore</t>
   </si>
   <si>
-    <t>Mommabearsmith</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r226301945-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1446,9 +1665,6 @@
     <t xml:space="preserve">I've stayed in many luxury hotels that were not as clean and well appointed as this hotel. Comfy bed, sofa, fridge, microwave, coffee maker. Breakfast was good. Omelets, biscuits, sausage, fresh pancakes, along with fruit, yogurt, etc. Will stay again if the opportunity presents. </t>
   </si>
   <si>
-    <t>Leigh B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r225898902-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1473,9 +1689,6 @@
     <t>Internet was down the entire time I was here. Room was never cleaned during my stay here. Bed was made like a teenager had done it. Trash was never emptied and they placed clean towels on top if my dirty ones. Breakfast at 8am was totally gone, no milk, no juices and pancake machine was out of mix. One of the worst stays ever in my life at a hotel. I'd almost expect this from a lower coat chain and I'm severely disappointed in my stay here. More</t>
   </si>
   <si>
-    <t>Dee C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r225570950-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1494,9 +1707,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>3GingersMom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r216497536-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1515,9 +1725,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Karen J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r213109939-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1542,9 +1749,6 @@
     <t>More</t>
   </si>
   <si>
-    <t>TexasHazelnuts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r207731287-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1572,9 +1776,6 @@
     <t>Fourteen of us stayed at this hotel for a mini family reunion. The staff let us use the common area once breakfast was over to visit, celebrate a birthday, play games, and meet up with each other before going out. The rooms were clean and comfortable. The breakfast buffet typical for this type of restaurant. I think the lady taking care of the buffet could have used some help to keep up with the Memorial Day weekend crowd though. Everything worked in our room. We would come back again.More</t>
   </si>
   <si>
-    <t>SDee C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r194775343-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1597,9 +1798,6 @@
   </si>
   <si>
     <t>Good hotel.  Restful and quiet.  I stayed one week.  The staff was very helpful and kind.  The continental breakfast was great and convenient for my travel to Granbury, TX.  I always enjoy my stay at the Holiday Inn Express.More</t>
-  </si>
-  <si>
-    <t>Lstew55</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r187366920-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
@@ -1631,9 +1829,6 @@
 But the thing that really set me off was there was no hot water - at all - not even lukewarm water.  So, when we were leaving, I told the woman at the front desk that they needed to know we were not able to get any hot water during our stay.  To my shock, she said she knew and they had a plumber coming, but there just wasn't hot water for now.  Shouldn't we have been told this when: 1) we made the reservation, or 2). when we checked in? I felt it was very deceptive to take full price from me for the room, KNOWING there was no hot water available during our stay.  I am going to have to rethink my loyalty to Holiday Inn. This was...We booked to stay there because of an important doctor appointment the next day and the roads were treacherous with ice.  We got there and the room was fine. (No greeting about being a Priority Club member - was told there was nothing for Priority Club members unless you were Platinum)? Anyway, all was at least sort of ok.  My sister tried to call me  after we arrived and the gal at the front desk couldn't transfer the call, much to my sister's frustration - we ate a late breakfast at about 8:30 and the food was less than stellar as it had dried out from being out too long.But the thing that really set me off was there was no hot water - at all - not even lukewarm water.  So, when we were leaving, I told the woman at the front desk that they needed to know we were not able to get any hot water during our stay.  To my shock, she said she knew and they had a plumber coming, but there just wasn't hot water for now.  Shouldn't we have been told this when: 1) we made the reservation, or 2). when we checked in? I felt it was very deceptive to take full price from me for the room, KNOWING there was no hot water available during our stay.  I am going to have to rethink my loyalty to Holiday Inn. This was a very disappointing experience.More</t>
   </si>
   <si>
-    <t>wadec3</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r177071619-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1661,9 +1856,6 @@
     <t>This hotel is brand new, clean, comfortable. The staff (front desk, breakfast and housekeeping) is very friendly and helpful. As future residents of Granbury, they were outgoing and welcoming; offering all kinds of advice on the area. One simple request was immediately dispatched and provided within a couple minutes. Everything here is new and there was he faintly pleasant and fresh aroma of new paint in our room. A great Holiday Inn Express property.More</t>
   </si>
   <si>
-    <t>MeinColorado</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55921-d1176337-r168523110-Holiday_Inn_Express_Granbury-Granbury_Texas.html</t>
   </si>
   <si>
@@ -1680,9 +1872,6 @@
   </si>
   <si>
     <t>July 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>I found myself suddenly needing a hotel while in the area. The property was apparently recently acquired by Holiday Inn  so I thought I might be able to get a better deal. I DID get a great rate and the room was perfect. Bed - pillow - cleanliness - All GREAT. Staff - workout area - breakfast - All GREAT! Special thanks to the staff (and I hope I have the name right - Marlene).More</t>
@@ -2190,47 +2379,43 @@
       <c r="A2" t="n">
         <v>57726</v>
       </c>
-      <c r="B2" t="n">
-        <v>3949</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2242,57 +2427,57 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57726</v>
       </c>
-      <c r="B3" t="n">
-        <v>155810</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2303,61 +2488,53 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57726</v>
       </c>
-      <c r="B4" t="n">
-        <v>155811</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -2368,129 +2545,117 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57726</v>
       </c>
-      <c r="B5" t="n">
-        <v>136659</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57726</v>
       </c>
-      <c r="B6" t="n">
-        <v>155812</v>
-      </c>
-      <c r="C6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2502,60 +2667,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57726</v>
       </c>
-      <c r="B7" t="n">
-        <v>26606</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2567,60 +2728,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57726</v>
       </c>
-      <c r="B8" t="n">
-        <v>155813</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2632,686 +2789,618 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57726</v>
       </c>
-      <c r="B9" t="n">
-        <v>16023</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57726</v>
       </c>
-      <c r="B10" t="n">
-        <v>155814</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57726</v>
       </c>
-      <c r="B11" t="n">
-        <v>40708</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57726</v>
       </c>
-      <c r="B12" t="n">
-        <v>155815</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="Y12" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57726</v>
       </c>
-      <c r="B13" t="n">
-        <v>155816</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="X13" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57726</v>
       </c>
-      <c r="B14" t="n">
-        <v>155817</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57726</v>
       </c>
-      <c r="B15" t="n">
-        <v>73748</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57726</v>
       </c>
-      <c r="B16" t="n">
-        <v>155818</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="X16" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57726</v>
       </c>
-      <c r="B17" t="n">
-        <v>12976</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57726</v>
       </c>
-      <c r="B18" t="n">
-        <v>102737</v>
-      </c>
-      <c r="C18" t="s">
-        <v>200</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" t="s">
+        <v>104</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -3322,529 +3411,511 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57726</v>
       </c>
-      <c r="B19" t="n">
-        <v>27870</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57726</v>
       </c>
-      <c r="B20" t="n">
-        <v>155819</v>
-      </c>
-      <c r="C20" t="s">
-        <v>219</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57726</v>
       </c>
-      <c r="B21" t="n">
-        <v>408</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>236</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="X21" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Y21" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57726</v>
       </c>
-      <c r="B22" t="n">
-        <v>49598</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="X22" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="Y22" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57726</v>
       </c>
-      <c r="B23" t="n">
-        <v>155820</v>
-      </c>
-      <c r="C23" t="s">
-        <v>250</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="J23" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="X23" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57726</v>
       </c>
-      <c r="B24" t="n">
-        <v>155821</v>
-      </c>
-      <c r="C24" t="s">
-        <v>259</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57726</v>
       </c>
-      <c r="B25" t="n">
-        <v>155822</v>
-      </c>
-      <c r="C25" t="s">
-        <v>268</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s">
-        <v>274</v>
-      </c>
-      <c r="O25" t="s">
-        <v>73</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57726</v>
       </c>
-      <c r="B26" t="n">
-        <v>26379</v>
-      </c>
-      <c r="C26" t="s">
-        <v>276</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3856,125 +3927,117 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="X26" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Y26" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57726</v>
       </c>
-      <c r="B27" t="n">
-        <v>155823</v>
-      </c>
-      <c r="C27" t="s">
-        <v>285</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
       <c r="Y27" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57726</v>
       </c>
-      <c r="B28" t="n">
-        <v>155824</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3986,60 +4049,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="X28" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57726</v>
       </c>
-      <c r="B29" t="n">
-        <v>155825</v>
-      </c>
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4051,252 +4110,254 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57726</v>
       </c>
-      <c r="B30" t="n">
-        <v>304</v>
-      </c>
-      <c r="C30" t="s">
-        <v>310</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="O30" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>267</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57726</v>
       </c>
-      <c r="B31" t="n">
-        <v>3951</v>
-      </c>
-      <c r="C31" t="s">
-        <v>320</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="J31" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="O31" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57726</v>
       </c>
-      <c r="B32" t="n">
-        <v>155826</v>
-      </c>
-      <c r="C32" t="s">
-        <v>327</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
       <c r="Y32" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57726</v>
       </c>
-      <c r="B33" t="n">
-        <v>155827</v>
-      </c>
-      <c r="C33" t="s">
-        <v>334</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O33" t="s">
+        <v>123</v>
+      </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -4306,62 +4367,64 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
       <c r="Y33" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57726</v>
       </c>
-      <c r="B34" t="n">
-        <v>155828</v>
-      </c>
-      <c r="C34" t="s">
-        <v>340</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="J34" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
@@ -4371,379 +4434,361 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>317</v>
+      </c>
+      <c r="X34" t="s">
+        <v>318</v>
+      </c>
       <c r="Y34" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57726</v>
       </c>
-      <c r="B35" t="n">
-        <v>155829</v>
-      </c>
-      <c r="C35" t="s">
-        <v>347</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O35" t="s">
-        <v>84</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="n">
+        <v>325</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
         <v>3</v>
       </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>327</v>
+      </c>
       <c r="Y35" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57726</v>
       </c>
-      <c r="B36" t="n">
-        <v>7204</v>
-      </c>
-      <c r="C36" t="s">
-        <v>354</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="J36" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="K36" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
       <c r="Y36" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57726</v>
       </c>
-      <c r="B37" t="n">
-        <v>155830</v>
-      </c>
-      <c r="C37" t="s">
-        <v>360</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>353</v>
-      </c>
-      <c r="O37" t="s">
-        <v>236</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="X37" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="Y37" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57726</v>
       </c>
-      <c r="B38" t="n">
-        <v>155831</v>
-      </c>
-      <c r="C38" t="s">
-        <v>369</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57726</v>
       </c>
-      <c r="B39" t="n">
-        <v>155832</v>
-      </c>
-      <c r="C39" t="s">
-        <v>376</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57726</v>
       </c>
-      <c r="B40" t="n">
-        <v>155833</v>
-      </c>
-      <c r="C40" t="s">
-        <v>384</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>355</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
@@ -4754,272 +4799,246 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="X40" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57726</v>
       </c>
-      <c r="B41" t="n">
-        <v>155834</v>
-      </c>
-      <c r="C41" t="s">
-        <v>393</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="J41" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>397</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
       <c r="Y41" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57726</v>
       </c>
-      <c r="B42" t="n">
-        <v>155835</v>
-      </c>
-      <c r="C42" t="s">
-        <v>400</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
       <c r="Y42" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57726</v>
       </c>
-      <c r="B43" t="n">
-        <v>155836</v>
-      </c>
-      <c r="C43" t="s">
-        <v>407</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="J43" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
       <c r="O43" t="s">
-        <v>73</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>4</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="X43" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="Y43" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57726</v>
       </c>
-      <c r="B44" t="n">
-        <v>155837</v>
-      </c>
-      <c r="C44" t="s">
-        <v>416</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="K44" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="L44" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="O44" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>5</v>
@@ -5030,131 +5049,113 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57726</v>
       </c>
-      <c r="B45" t="n">
-        <v>155838</v>
-      </c>
-      <c r="C45" t="s">
-        <v>422</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>406</v>
-      </c>
-      <c r="O45" t="s">
-        <v>84</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57726</v>
       </c>
-      <c r="B46" t="n">
-        <v>5388</v>
-      </c>
-      <c r="C46" t="s">
-        <v>428</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="J46" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="K46" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="O46" t="s">
-        <v>84</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
       <c r="Q46" t="s"/>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+      <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5162,62 +5163,56 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57726</v>
       </c>
-      <c r="B47" t="n">
-        <v>35143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>436</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
@@ -5229,327 +5224,291 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57726</v>
       </c>
-      <c r="B48" t="n">
-        <v>20929</v>
-      </c>
-      <c r="C48" t="s">
-        <v>443</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="O48" t="s">
-        <v>236</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>450</v>
-      </c>
-      <c r="X48" t="s">
-        <v>451</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57726</v>
       </c>
-      <c r="B49" t="n">
-        <v>7431</v>
-      </c>
-      <c r="C49" t="s">
-        <v>453</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
       <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="X49" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="Y49" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57726</v>
       </c>
-      <c r="B50" t="n">
-        <v>155839</v>
-      </c>
-      <c r="C50" t="s">
-        <v>462</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="J50" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="K50" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="L50" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s"/>
       <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>468</v>
-      </c>
-      <c r="X50" t="s">
-        <v>469</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57726</v>
       </c>
-      <c r="B51" t="n">
-        <v>155840</v>
-      </c>
-      <c r="C51" t="s">
-        <v>471</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57726</v>
       </c>
-      <c r="B52" t="n">
-        <v>53308</v>
-      </c>
-      <c r="C52" t="s">
-        <v>476</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>478</v>
+        <v>436</v>
       </c>
       <c r="J52" t="s">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="K52" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="L52" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
-      <c r="N52" t="s">
-        <v>449</v>
-      </c>
-      <c r="O52" t="s">
-        <v>53</v>
-      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
@@ -5560,70 +5519,68 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="X52" t="s">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="Y52" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57726</v>
       </c>
-      <c r="B53" t="n">
-        <v>71528</v>
-      </c>
-      <c r="C53" t="s">
-        <v>485</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="J53" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="K53" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="L53" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="O53" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
       <c r="R53" t="s"/>
       <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5631,59 +5588,55 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57726</v>
       </c>
-      <c r="B54" t="n">
-        <v>155841</v>
-      </c>
-      <c r="C54" t="s">
-        <v>492</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="J54" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="K54" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="L54" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="O54" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -5698,135 +5651,123 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57726</v>
       </c>
-      <c r="B55" t="n">
-        <v>22683</v>
-      </c>
-      <c r="C55" t="s">
-        <v>499</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="J55" t="s">
-        <v>502</v>
-      </c>
-      <c r="K55" t="s"/>
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
       <c r="L55" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
       <c r="X55" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="Y55" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57726</v>
       </c>
-      <c r="B56" t="n">
-        <v>155842</v>
-      </c>
-      <c r="C56" t="s">
-        <v>508</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>509</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="J56" t="s">
-        <v>511</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s">
-        <v>513</v>
+        <v>467</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>514</v>
+        <v>454</v>
       </c>
       <c r="O56" t="s">
-        <v>73</v>
-      </c>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5835,314 +5776,1381 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>515</v>
-      </c>
-      <c r="X56" t="s">
-        <v>516</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57726</v>
       </c>
-      <c r="B57" t="n">
-        <v>155843</v>
-      </c>
-      <c r="C57" t="s">
-        <v>518</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="J57" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="K57" t="s">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>523</v>
+        <v>454</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q57" t="n">
+        <v>123</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
         <v>4</v>
       </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>524</v>
-      </c>
-      <c r="X57" t="s">
-        <v>525</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>526</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57726</v>
       </c>
-      <c r="B58" t="n">
-        <v>154976</v>
-      </c>
-      <c r="C58" t="s">
-        <v>527</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>528</v>
+        <v>473</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>529</v>
+        <v>474</v>
       </c>
       <c r="J58" t="s">
-        <v>530</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s">
-        <v>531</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s">
-        <v>532</v>
+        <v>477</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="O58" t="s">
-        <v>73</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>534</v>
-      </c>
-      <c r="X58" t="s">
-        <v>535</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57726</v>
       </c>
-      <c r="B59" t="n">
-        <v>155844</v>
-      </c>
-      <c r="C59" t="s">
-        <v>537</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="J59" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
       <c r="L59" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>543</v>
+        <v>478</v>
       </c>
       <c r="O59" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>544</v>
+        <v>485</v>
       </c>
       <c r="X59" t="s">
-        <v>545</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s">
-        <v>546</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>57726</v>
       </c>
-      <c r="B60" t="n">
-        <v>155845</v>
-      </c>
-      <c r="C60" t="s">
-        <v>547</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>548</v>
+        <v>488</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="J60" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="K60" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="L60" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="O60" t="s">
-        <v>554</v>
+        <v>123</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>495</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>496</v>
+      </c>
+      <c r="J61" t="s">
+        <v>497</v>
+      </c>
+      <c r="K61" t="s">
+        <v>498</v>
+      </c>
+      <c r="L61" t="s">
+        <v>499</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>500</v>
+      </c>
+      <c r="O61" t="s">
+        <v>267</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>501</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" t="s">
+        <v>503</v>
+      </c>
+      <c r="K62" t="s">
+        <v>504</v>
+      </c>
+      <c r="L62" t="s">
+        <v>505</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>500</v>
+      </c>
+      <c r="O63" t="s">
+        <v>123</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>511</v>
+      </c>
+      <c r="X63" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>515</v>
+      </c>
+      <c r="J64" t="s">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s">
+        <v>518</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>521</v>
+      </c>
+      <c r="J65" t="s">
+        <v>522</v>
+      </c>
+      <c r="K65" t="s">
+        <v>523</v>
+      </c>
+      <c r="L65" t="s">
+        <v>524</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>525</v>
+      </c>
+      <c r="O65" t="s">
+        <v>267</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>526</v>
+      </c>
+      <c r="X65" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>529</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>530</v>
+      </c>
+      <c r="J66" t="s">
+        <v>531</v>
+      </c>
+      <c r="K66" t="s">
+        <v>532</v>
+      </c>
+      <c r="L66" t="s">
+        <v>533</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>525</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>534</v>
+      </c>
+      <c r="X66" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>537</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>538</v>
+      </c>
+      <c r="J67" t="s">
+        <v>539</v>
+      </c>
+      <c r="K67" t="s">
+        <v>540</v>
+      </c>
+      <c r="L67" t="s">
+        <v>541</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>542</v>
+      </c>
+      <c r="X67" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y67" t="s">
         <v>544</v>
       </c>
-      <c r="X60" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
         <v>545</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>546</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>525</v>
+      </c>
+      <c r="O69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>554</v>
+      </c>
+      <c r="X69" t="s">
         <v>555</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>557</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>558</v>
+      </c>
+      <c r="J70" t="s">
+        <v>559</v>
+      </c>
+      <c r="K70" t="s">
+        <v>560</v>
+      </c>
+      <c r="L70" t="s">
+        <v>561</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>562</v>
+      </c>
+      <c r="O70" t="s">
+        <v>267</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>563</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>564</v>
+      </c>
+      <c r="J71" t="s">
+        <v>565</v>
+      </c>
+      <c r="K71" t="s">
+        <v>566</v>
+      </c>
+      <c r="L71" t="s">
+        <v>567</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>568</v>
+      </c>
+      <c r="O71" t="s">
+        <v>267</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>569</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>570</v>
+      </c>
+      <c r="J72" t="s">
+        <v>571</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>573</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>574</v>
+      </c>
+      <c r="X72" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>582</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>583</v>
+      </c>
+      <c r="X73" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>586</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>587</v>
+      </c>
+      <c r="J74" t="s">
+        <v>588</v>
+      </c>
+      <c r="K74" t="s">
+        <v>425</v>
+      </c>
+      <c r="L74" t="s">
+        <v>589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>590</v>
+      </c>
+      <c r="O74" t="s">
+        <v>104</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>591</v>
+      </c>
+      <c r="X74" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>594</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>595</v>
+      </c>
+      <c r="J75" t="s">
+        <v>596</v>
+      </c>
+      <c r="K75" t="s">
+        <v>597</v>
+      </c>
+      <c r="L75" t="s">
+        <v>598</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>599</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>600</v>
+      </c>
+      <c r="X75" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>603</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>604</v>
+      </c>
+      <c r="J76" t="s">
+        <v>605</v>
+      </c>
+      <c r="K76" t="s">
+        <v>606</v>
+      </c>
+      <c r="L76" t="s">
+        <v>607</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>608</v>
+      </c>
+      <c r="O76" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>609</v>
+      </c>
+      <c r="X76" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57726</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>612</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>613</v>
+      </c>
+      <c r="J77" t="s">
+        <v>614</v>
+      </c>
+      <c r="K77" t="s">
+        <v>615</v>
+      </c>
+      <c r="L77" t="s">
+        <v>616</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>617</v>
+      </c>
+      <c r="O77" t="s">
+        <v>325</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>609</v>
+      </c>
+      <c r="X77" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
